--- a/Code/Results/Cases/Case_0_190/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_190/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.491226730138339</v>
+        <v>4.927909215762314</v>
       </c>
       <c r="D2">
-        <v>1.88930021588173</v>
+        <v>2.847003690747064</v>
       </c>
       <c r="E2">
-        <v>31.08433963555984</v>
+        <v>16.70553859340207</v>
       </c>
       <c r="F2">
-        <v>29.47630241556391</v>
+        <v>21.44205980522257</v>
       </c>
       <c r="G2">
-        <v>44.85626948319841</v>
+        <v>27.28524728152907</v>
       </c>
       <c r="H2">
-        <v>11.24718386980959</v>
+        <v>11.83963547182539</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25.60720851682374</v>
+        <v>18.99769123883711</v>
       </c>
       <c r="O2">
-        <v>23.0949870667185</v>
+        <v>18.21424911005318</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.960411184516728</v>
+        <v>4.750711121090885</v>
       </c>
       <c r="D3">
-        <v>1.84981881468651</v>
+        <v>2.842352512309697</v>
       </c>
       <c r="E3">
-        <v>28.75934205683014</v>
+        <v>15.74098122386729</v>
       </c>
       <c r="F3">
-        <v>27.36116990310433</v>
+        <v>20.83462416852414</v>
       </c>
       <c r="G3">
-        <v>41.61809116223175</v>
+        <v>25.99870046402663</v>
       </c>
       <c r="H3">
-        <v>10.63477863980076</v>
+        <v>11.7393696284572</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.22561817997339</v>
+        <v>18.40031508502701</v>
       </c>
       <c r="O3">
-        <v>21.4195642400871</v>
+        <v>17.82091217572668</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.617656167473421</v>
+        <v>4.640096136786111</v>
       </c>
       <c r="D4">
-        <v>1.826372056020938</v>
+        <v>2.839518267372575</v>
       </c>
       <c r="E4">
-        <v>27.27194365899687</v>
+        <v>15.12306693296055</v>
       </c>
       <c r="F4">
-        <v>26.00169701417705</v>
+        <v>20.4598277646215</v>
       </c>
       <c r="G4">
-        <v>39.53673131537727</v>
+        <v>25.18411712988712</v>
       </c>
       <c r="H4">
-        <v>10.25137807703731</v>
+        <v>11.68066401629609</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.33595077662917</v>
+        <v>18.02485520896362</v>
       </c>
       <c r="O4">
-        <v>20.341488144454</v>
+        <v>17.58096086381733</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.473686881391927</v>
+        <v>4.594643996562551</v>
       </c>
       <c r="D5">
-        <v>1.816986061564583</v>
+        <v>2.83836839667419</v>
       </c>
       <c r="E5">
-        <v>26.65023668301142</v>
+        <v>14.86507095140316</v>
       </c>
       <c r="F5">
-        <v>25.43224790253376</v>
+        <v>20.30690014922033</v>
       </c>
       <c r="G5">
-        <v>38.66483820549339</v>
+        <v>24.84649731098828</v>
       </c>
       <c r="H5">
-        <v>10.09342242322585</v>
+        <v>11.65748202894931</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.96331756195408</v>
+        <v>17.86990355188765</v>
       </c>
       <c r="O5">
-        <v>19.88955450629854</v>
+        <v>17.48372304092097</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.449519826142745</v>
+        <v>4.587076506565099</v>
       </c>
       <c r="D6">
-        <v>1.815436867529005</v>
+        <v>2.838177760592899</v>
       </c>
       <c r="E6">
-        <v>26.546047036537</v>
+        <v>14.82186579043061</v>
       </c>
       <c r="F6">
-        <v>25.33675391182327</v>
+        <v>20.28150283021179</v>
       </c>
       <c r="G6">
-        <v>38.51862049145813</v>
+        <v>24.79011010989671</v>
       </c>
       <c r="H6">
-        <v>10.06709515867113</v>
+        <v>11.65367805690804</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.90084339962192</v>
+        <v>17.84406337566597</v>
       </c>
       <c r="O6">
-        <v>19.81374445826739</v>
+        <v>17.46761413378064</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.615732011607603</v>
+        <v>4.639484562621854</v>
       </c>
       <c r="D7">
-        <v>1.826244828745655</v>
+        <v>2.839502739525408</v>
       </c>
       <c r="E7">
-        <v>27.2636228545838</v>
+        <v>15.11961218647725</v>
       </c>
       <c r="F7">
-        <v>25.99407998461312</v>
+        <v>20.45776576031786</v>
       </c>
       <c r="G7">
-        <v>39.52506907178234</v>
+        <v>25.17958608262035</v>
       </c>
       <c r="H7">
-        <v>10.24925457009857</v>
+        <v>11.6803483472258</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.33096569062624</v>
+        <v>18.02277304767603</v>
       </c>
       <c r="O7">
-        <v>20.33544450440079</v>
+        <v>17.5796470742993</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.311657030682323</v>
+        <v>4.867234215169561</v>
       </c>
       <c r="D8">
-        <v>1.875502192692724</v>
+        <v>2.845395285005938</v>
       </c>
       <c r="E8">
-        <v>30.29476390717264</v>
+        <v>16.37843040157254</v>
       </c>
       <c r="F8">
-        <v>28.75950056587625</v>
+        <v>21.23315037590891</v>
       </c>
       <c r="G8">
-        <v>43.75886214001715</v>
+        <v>26.84705228545225</v>
       </c>
       <c r="H8">
-        <v>11.03762976561879</v>
+        <v>11.80448449313306</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>25.1395913014106</v>
+        <v>18.79364780656867</v>
       </c>
       <c r="O8">
-        <v>22.52741913720753</v>
+        <v>18.07839353513216</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.545776149537268</v>
+        <v>5.296259412424064</v>
       </c>
       <c r="D9">
-        <v>1.98001182984446</v>
+        <v>2.857137096684657</v>
       </c>
       <c r="E9">
-        <v>35.79100003469978</v>
+        <v>18.78811643531093</v>
       </c>
       <c r="F9">
-        <v>33.71048316201082</v>
+        <v>22.7282243724197</v>
       </c>
       <c r="G9">
-        <v>51.34013021524694</v>
+        <v>29.90193584892382</v>
       </c>
       <c r="H9">
-        <v>12.74219878832973</v>
+        <v>12.06954073893366</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>28.34722074380647</v>
+        <v>20.2273683202997</v>
       </c>
       <c r="O9">
-        <v>26.44454245501814</v>
+        <v>19.06226355741022</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.377368881814165</v>
+        <v>5.596955309575596</v>
       </c>
       <c r="D10">
-        <v>2.064240805589195</v>
+        <v>2.865899395333858</v>
       </c>
       <c r="E10">
-        <v>39.5992550589748</v>
+        <v>20.46965862704375</v>
       </c>
       <c r="F10">
-        <v>37.07801137792572</v>
+        <v>23.79757136625626</v>
       </c>
       <c r="G10">
-        <v>56.50017217823873</v>
+        <v>31.99356861721893</v>
       </c>
       <c r="H10">
-        <v>14.01729623172766</v>
+        <v>12.27596704518577</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>30.48602834203865</v>
+        <v>21.22223697909767</v>
       </c>
       <c r="O10">
-        <v>29.10661009624727</v>
+        <v>19.7802212038149</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.740488318026639</v>
+        <v>5.729934621946054</v>
       </c>
       <c r="D11">
-        <v>2.104893758553437</v>
+        <v>2.869919856340716</v>
       </c>
       <c r="E11">
-        <v>41.29342868165814</v>
+        <v>21.19208178177454</v>
       </c>
       <c r="F11">
-        <v>38.55634844759789</v>
+        <v>24.27519565339495</v>
       </c>
       <c r="G11">
-        <v>58.76677301382721</v>
+        <v>32.90844354024738</v>
       </c>
       <c r="H11">
-        <v>14.57787065968221</v>
+        <v>12.37207576034201</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>31.41016321374476</v>
+        <v>21.66018057919901</v>
       </c>
       <c r="O11">
-        <v>30.27518581352414</v>
+        <v>20.10410721387743</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.875914414541793</v>
+        <v>5.779695868351379</v>
       </c>
       <c r="D12">
-        <v>2.120697319513294</v>
+        <v>2.871447636775248</v>
       </c>
       <c r="E12">
-        <v>41.93064082907414</v>
+        <v>21.45956983581143</v>
       </c>
       <c r="F12">
-        <v>39.10895099213469</v>
+        <v>24.45460272838332</v>
       </c>
       <c r="G12">
-        <v>59.61427911969945</v>
+        <v>33.24938747018248</v>
       </c>
       <c r="H12">
-        <v>14.78753927147733</v>
+        <v>12.40875721936211</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>31.75299711977163</v>
+        <v>21.82377585682186</v>
       </c>
       <c r="O12">
-        <v>30.71202605866827</v>
+        <v>20.22623451673249</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.846838687075223</v>
+        <v>5.769006056086128</v>
       </c>
       <c r="D13">
-        <v>2.117274231754724</v>
+        <v>2.871118359485898</v>
       </c>
       <c r="E13">
-        <v>41.79357784727013</v>
+        <v>21.40223123933002</v>
       </c>
       <c r="F13">
-        <v>38.99025019054463</v>
+        <v>24.41603192273011</v>
       </c>
       <c r="G13">
-        <v>59.43221996986495</v>
+        <v>33.17620698650827</v>
       </c>
       <c r="H13">
-        <v>14.74249599945229</v>
+        <v>12.40084491739543</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>31.67947945617568</v>
+        <v>21.78864458690801</v>
       </c>
       <c r="O13">
-        <v>30.61818959294389</v>
+        <v>20.19995739655366</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.751670943508024</v>
+        <v>5.734040688071927</v>
       </c>
       <c r="D14">
-        <v>2.106185259618377</v>
+        <v>2.87004543903785</v>
       </c>
       <c r="E14">
-        <v>41.34593199061172</v>
+        <v>21.21420978851934</v>
       </c>
       <c r="F14">
-        <v>38.60195282027608</v>
+        <v>24.28998584363616</v>
       </c>
       <c r="G14">
-        <v>58.83670937289457</v>
+        <v>32.93660461711558</v>
       </c>
       <c r="H14">
-        <v>14.59517128951275</v>
+        <v>12.3750879827921</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>31.43851144188476</v>
+        <v>21.67368539489659</v>
       </c>
       <c r="O14">
-        <v>30.31123597706287</v>
+        <v>20.11416586801264</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.693110427100381</v>
+        <v>5.712544578162985</v>
       </c>
       <c r="D15">
-        <v>2.099448628982122</v>
+        <v>2.869388947936345</v>
       </c>
       <c r="E15">
-        <v>41.07120945113689</v>
+        <v>21.09825076922159</v>
       </c>
       <c r="F15">
-        <v>38.3631862588221</v>
+        <v>24.21258366221619</v>
       </c>
       <c r="G15">
-        <v>58.47056061865764</v>
+        <v>32.78911880636149</v>
       </c>
       <c r="H15">
-        <v>14.50459716613979</v>
+        <v>12.35934762366352</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>31.28998244549471</v>
+        <v>21.60297336126124</v>
       </c>
       <c r="O15">
-        <v>30.12249279521069</v>
+        <v>20.06154445023211</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.353341315645924</v>
+        <v>5.58818396741828</v>
       </c>
       <c r="D16">
-        <v>2.061637019085274</v>
+        <v>2.865637373057486</v>
       </c>
       <c r="E16">
-        <v>39.48786249590995</v>
+        <v>20.42159408957463</v>
       </c>
       <c r="F16">
-        <v>36.98036086641842</v>
+        <v>23.76616327202328</v>
       </c>
       <c r="G16">
-        <v>56.3504857469383</v>
+        <v>31.933021644086</v>
       </c>
       <c r="H16">
-        <v>13.98028514580317</v>
+        <v>12.26972793351934</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>30.424642833461</v>
+        <v>21.19330956972086</v>
       </c>
       <c r="O16">
-        <v>29.02942238394741</v>
+        <v>19.75898847577349</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.141086515999607</v>
+        <v>5.510881612523735</v>
       </c>
       <c r="D17">
-        <v>2.039087384577074</v>
+        <v>2.863344984699761</v>
       </c>
       <c r="E17">
-        <v>38.50750660247216</v>
+        <v>19.99562288820602</v>
       </c>
       <c r="F17">
-        <v>36.11864752750225</v>
+        <v>23.48989760279738</v>
       </c>
       <c r="G17">
-        <v>55.02974409371069</v>
+        <v>31.39827571243351</v>
       </c>
       <c r="H17">
-        <v>13.65377521001824</v>
+        <v>12.21529267921034</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>29.88120505119274</v>
+        <v>20.93814219015166</v>
       </c>
       <c r="O17">
-        <v>28.34827941127519</v>
+        <v>19.57258892858086</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.017567888300157</v>
+        <v>5.466063290532993</v>
       </c>
       <c r="D18">
-        <v>2.026332307265001</v>
+        <v>2.862029683714533</v>
       </c>
       <c r="E18">
-        <v>37.93995422835134</v>
+        <v>19.74661129124327</v>
       </c>
       <c r="F18">
-        <v>35.61793690506785</v>
+        <v>23.33017627434371</v>
       </c>
       <c r="G18">
-        <v>54.26243496322412</v>
+        <v>31.08726844452466</v>
       </c>
       <c r="H18">
-        <v>13.4641290749425</v>
+        <v>12.18419226319307</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>29.56404287680425</v>
+        <v>20.79000725568362</v>
       </c>
       <c r="O18">
-        <v>27.95248312871346</v>
+        <v>19.46512847085719</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.975497148182198</v>
+        <v>5.450828966686399</v>
       </c>
       <c r="D19">
-        <v>2.022048540970725</v>
+        <v>2.861584887426505</v>
       </c>
       <c r="E19">
-        <v>37.74712690110727</v>
+        <v>19.66161140627431</v>
       </c>
       <c r="F19">
-        <v>35.44751938674386</v>
+        <v>23.27596249551343</v>
       </c>
       <c r="G19">
-        <v>54.00130035635186</v>
+        <v>30.98138443994493</v>
       </c>
       <c r="H19">
-        <v>13.3995957426276</v>
+        <v>12.17369904556637</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>29.45587200880245</v>
+        <v>20.73962067985785</v>
       </c>
       <c r="O19">
-        <v>27.81777077363348</v>
+        <v>19.42870566065305</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.16382924032717</v>
+        <v>5.519147792434978</v>
       </c>
       <c r="D20">
-        <v>2.041465104257471</v>
+        <v>2.863588677445738</v>
       </c>
       <c r="E20">
-        <v>38.61223999729839</v>
+        <v>20.04138240899327</v>
       </c>
       <c r="F20">
-        <v>36.21090040928716</v>
+        <v>23.51939291460245</v>
       </c>
       <c r="G20">
-        <v>55.17112598948747</v>
+        <v>31.45555771327277</v>
       </c>
       <c r="H20">
-        <v>13.68872254637989</v>
+        <v>12.22106595754394</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>29.93953086719064</v>
+        <v>20.96544799483449</v>
       </c>
       <c r="O20">
-        <v>28.42120150757953</v>
+        <v>19.59245815574117</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.779679567021441</v>
+        <v>5.744327365249977</v>
       </c>
       <c r="D21">
-        <v>2.109430604827008</v>
+        <v>2.870360434484887</v>
       </c>
       <c r="E21">
-        <v>41.47752378546145</v>
+        <v>21.26960091134836</v>
       </c>
       <c r="F21">
-        <v>38.71619657354429</v>
+        <v>24.32704965068447</v>
       </c>
       <c r="G21">
-        <v>59.01191151876386</v>
+        <v>33.00713256012475</v>
       </c>
       <c r="H21">
-        <v>14.63851323605661</v>
+        <v>12.3826458645136</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>31.50948335633596</v>
+        <v>21.70751365554064</v>
       </c>
       <c r="O21">
-        <v>30.40154598121309</v>
+        <v>20.13938006887667</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.17011057177838</v>
+        <v>5.888008340429265</v>
       </c>
       <c r="D22">
-        <v>2.156279231639647</v>
+        <v>2.87481734652353</v>
       </c>
       <c r="E22">
-        <v>43.32558505546467</v>
+        <v>22.03690264483966</v>
       </c>
       <c r="F22">
-        <v>40.31180658207114</v>
+        <v>24.84632078162225</v>
       </c>
       <c r="G22">
-        <v>61.45956872844395</v>
+        <v>33.98904006068562</v>
       </c>
       <c r="H22">
-        <v>15.24416459728647</v>
+        <v>12.48990748496821</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>32.49403281050594</v>
+        <v>22.17935961385674</v>
       </c>
       <c r="O22">
-        <v>31.6629889730362</v>
+        <v>20.49373176747093</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.962796534361811</v>
+        <v>5.811656343170425</v>
       </c>
       <c r="D23">
-        <v>2.131025116618664</v>
+        <v>2.872435633780768</v>
       </c>
       <c r="E23">
-        <v>42.34104756785165</v>
+        <v>21.63060736680948</v>
       </c>
       <c r="F23">
-        <v>39.46383507044867</v>
+        <v>24.57001917168679</v>
       </c>
       <c r="G23">
-        <v>60.1586284442099</v>
+        <v>33.46798535939462</v>
       </c>
       <c r="H23">
-        <v>14.92222565769256</v>
+        <v>12.43251800643284</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>31.97238356075506</v>
+        <v>21.92877110911181</v>
       </c>
       <c r="O23">
-        <v>30.99257898276394</v>
+        <v>20.30493171273619</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.153551904885566</v>
+        <v>5.515411820516509</v>
       </c>
       <c r="D24">
-        <v>2.040389491482842</v>
+        <v>2.863478495811163</v>
       </c>
       <c r="E24">
-        <v>38.56490236337396</v>
+        <v>20.02070734994363</v>
       </c>
       <c r="F24">
-        <v>36.16920942622116</v>
+        <v>23.50606084954937</v>
       </c>
       <c r="G24">
-        <v>55.10723220258424</v>
+        <v>31.42967163699083</v>
       </c>
       <c r="H24">
-        <v>13.6729288849572</v>
+        <v>12.21845524834599</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>29.91317649911916</v>
+        <v>20.95310750188673</v>
       </c>
       <c r="O24">
-        <v>28.38824653522136</v>
+        <v>19.58347619283895</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.225454170969657</v>
+        <v>5.182497424840949</v>
       </c>
       <c r="D25">
-        <v>1.950645201183802</v>
+        <v>2.853938411188361</v>
       </c>
       <c r="E25">
-        <v>34.34796435631868</v>
+        <v>18.13092776440016</v>
       </c>
       <c r="F25">
-        <v>32.4200006119236</v>
+        <v>22.32795688141718</v>
       </c>
       <c r="G25">
-        <v>49.36362981220816</v>
+        <v>29.10099330607924</v>
       </c>
       <c r="H25">
-        <v>12.2542612518708</v>
+        <v>11.9956708575648</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>27.51708508088413</v>
+        <v>19.84905939529497</v>
       </c>
       <c r="O25">
-        <v>25.42409825363393</v>
+        <v>18.79637008422408</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_190/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_190/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.927909215762314</v>
+        <v>7.491226730138332</v>
       </c>
       <c r="D2">
-        <v>2.847003690747064</v>
+        <v>1.889300215881797</v>
       </c>
       <c r="E2">
-        <v>16.70553859340207</v>
+        <v>31.08433963555977</v>
       </c>
       <c r="F2">
-        <v>21.44205980522257</v>
+        <v>29.47630241556388</v>
       </c>
       <c r="G2">
-        <v>27.28524728152907</v>
+        <v>44.85626948319839</v>
       </c>
       <c r="H2">
-        <v>11.83963547182539</v>
+        <v>11.24718386980959</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.99769123883711</v>
+        <v>25.60720851682377</v>
       </c>
       <c r="O2">
-        <v>18.21424911005318</v>
+        <v>23.09498706671848</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.750711121090885</v>
+        <v>6.960411184516807</v>
       </c>
       <c r="D3">
-        <v>2.842352512309697</v>
+        <v>1.849818814686575</v>
       </c>
       <c r="E3">
-        <v>15.74098122386729</v>
+        <v>28.75934205683018</v>
       </c>
       <c r="F3">
-        <v>20.83462416852414</v>
+        <v>27.36116990310432</v>
       </c>
       <c r="G3">
-        <v>25.99870046402663</v>
+        <v>41.61809116223173</v>
       </c>
       <c r="H3">
-        <v>11.7393696284572</v>
+        <v>10.63477863980076</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.40031508502701</v>
+        <v>24.22561817997341</v>
       </c>
       <c r="O3">
-        <v>17.82091217572668</v>
+        <v>21.41956424008708</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.640096136786111</v>
+        <v>6.617656167473482</v>
       </c>
       <c r="D4">
-        <v>2.839518267372575</v>
+        <v>1.826372056020804</v>
       </c>
       <c r="E4">
-        <v>15.12306693296055</v>
+        <v>27.27194365899692</v>
       </c>
       <c r="F4">
-        <v>20.4598277646215</v>
+        <v>26.00169701417714</v>
       </c>
       <c r="G4">
-        <v>25.18411712988712</v>
+        <v>39.53673131537741</v>
       </c>
       <c r="H4">
-        <v>11.68066401629609</v>
+        <v>10.25137807703731</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.02485520896362</v>
+        <v>23.33595077662918</v>
       </c>
       <c r="O4">
-        <v>17.58096086381733</v>
+        <v>20.34148814445407</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.594643996562551</v>
+        <v>6.473686881391931</v>
       </c>
       <c r="D5">
-        <v>2.83836839667419</v>
+        <v>1.816986061564584</v>
       </c>
       <c r="E5">
-        <v>14.86507095140316</v>
+        <v>26.65023668301141</v>
       </c>
       <c r="F5">
-        <v>20.30690014922033</v>
+        <v>25.43224790253369</v>
       </c>
       <c r="G5">
-        <v>24.84649731098828</v>
+        <v>38.66483820549327</v>
       </c>
       <c r="H5">
-        <v>11.65748202894931</v>
+        <v>10.09342242322582</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.86990355188765</v>
+        <v>22.96331756195407</v>
       </c>
       <c r="O5">
-        <v>17.48372304092097</v>
+        <v>19.88955450629847</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.587076506565099</v>
+        <v>6.449519826142694</v>
       </c>
       <c r="D6">
-        <v>2.838177760592899</v>
+        <v>1.815436867528937</v>
       </c>
       <c r="E6">
-        <v>14.82186579043061</v>
+        <v>26.546047036537</v>
       </c>
       <c r="F6">
-        <v>20.28150283021179</v>
+        <v>25.33675391182331</v>
       </c>
       <c r="G6">
-        <v>24.79011010989671</v>
+        <v>38.51862049145819</v>
       </c>
       <c r="H6">
-        <v>11.65367805690804</v>
+        <v>10.06709515867115</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.84406337566597</v>
+        <v>22.90084339962192</v>
       </c>
       <c r="O6">
-        <v>17.46761413378064</v>
+        <v>19.81374445826744</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.639484562621854</v>
+        <v>6.615732011607604</v>
       </c>
       <c r="D7">
-        <v>2.839502739525408</v>
+        <v>1.826244828745788</v>
       </c>
       <c r="E7">
-        <v>15.11961218647725</v>
+        <v>27.26362285458383</v>
       </c>
       <c r="F7">
-        <v>20.45776576031786</v>
+        <v>25.99407998461321</v>
       </c>
       <c r="G7">
-        <v>25.17958608262035</v>
+        <v>39.52506907178254</v>
       </c>
       <c r="H7">
-        <v>11.6803483472258</v>
+        <v>10.24925457009858</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.02277304767603</v>
+        <v>23.33096569062625</v>
       </c>
       <c r="O7">
-        <v>17.5796470742993</v>
+        <v>20.3354445044009</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.867234215169561</v>
+        <v>7.311657030682269</v>
       </c>
       <c r="D8">
-        <v>2.845395285005938</v>
+        <v>1.875502192692723</v>
       </c>
       <c r="E8">
-        <v>16.37843040157254</v>
+        <v>30.29476390717269</v>
       </c>
       <c r="F8">
-        <v>21.23315037590891</v>
+        <v>28.75950056587627</v>
       </c>
       <c r="G8">
-        <v>26.84705228545225</v>
+        <v>43.7588621400172</v>
       </c>
       <c r="H8">
-        <v>11.80448449313306</v>
+        <v>11.0376297656188</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.79364780656867</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O8">
-        <v>18.07839353513216</v>
+        <v>22.52741913720755</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.296259412424064</v>
+        <v>8.545776149537316</v>
       </c>
       <c r="D9">
-        <v>2.857137096684657</v>
+        <v>1.980011829844259</v>
       </c>
       <c r="E9">
-        <v>18.78811643531093</v>
+        <v>35.79100003469981</v>
       </c>
       <c r="F9">
-        <v>22.7282243724197</v>
+        <v>33.71048316201085</v>
       </c>
       <c r="G9">
-        <v>29.90193584892382</v>
+        <v>51.34013021524697</v>
       </c>
       <c r="H9">
-        <v>12.06954073893366</v>
+        <v>12.74219878832972</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.2273683202997</v>
+        <v>28.34722074380646</v>
       </c>
       <c r="O9">
-        <v>19.06226355741022</v>
+        <v>26.44454245501813</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.596955309575596</v>
+        <v>9.377368881814029</v>
       </c>
       <c r="D10">
-        <v>2.865899395333858</v>
+        <v>2.064240805589262</v>
       </c>
       <c r="E10">
-        <v>20.46965862704375</v>
+        <v>39.59925505897471</v>
       </c>
       <c r="F10">
-        <v>23.79757136625626</v>
+        <v>37.07801137792551</v>
       </c>
       <c r="G10">
-        <v>31.99356861721893</v>
+        <v>56.50017217823844</v>
       </c>
       <c r="H10">
-        <v>12.27596704518577</v>
+        <v>14.01729623172759</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.22223697909767</v>
+        <v>30.48602834203865</v>
       </c>
       <c r="O10">
-        <v>19.7802212038149</v>
+        <v>29.1066100962471</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.729934621946054</v>
+        <v>9.740488318026532</v>
       </c>
       <c r="D11">
-        <v>2.869919856340716</v>
+        <v>2.104893758553502</v>
       </c>
       <c r="E11">
-        <v>21.19208178177454</v>
+        <v>41.29342868165806</v>
       </c>
       <c r="F11">
-        <v>24.27519565339495</v>
+        <v>38.55634844759776</v>
       </c>
       <c r="G11">
-        <v>32.90844354024738</v>
+        <v>58.76677301382702</v>
       </c>
       <c r="H11">
-        <v>12.37207576034201</v>
+        <v>14.57787065968219</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.66018057919901</v>
+        <v>31.41016321374474</v>
       </c>
       <c r="O11">
-        <v>20.10410721387743</v>
+        <v>30.27518581352405</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.779695868351379</v>
+        <v>9.875914414541755</v>
       </c>
       <c r="D12">
-        <v>2.871447636775248</v>
+        <v>2.120697319513293</v>
       </c>
       <c r="E12">
-        <v>21.45956983581143</v>
+        <v>41.93064082907414</v>
       </c>
       <c r="F12">
-        <v>24.45460272838332</v>
+        <v>39.10895099213473</v>
       </c>
       <c r="G12">
-        <v>33.24938747018248</v>
+        <v>59.61427911969949</v>
       </c>
       <c r="H12">
-        <v>12.40875721936211</v>
+        <v>14.78753927147737</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.82377585682186</v>
+        <v>31.75299711977163</v>
       </c>
       <c r="O12">
-        <v>20.22623451673249</v>
+        <v>30.71202605866831</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.769006056086128</v>
+        <v>9.846838687075261</v>
       </c>
       <c r="D13">
-        <v>2.871118359485898</v>
+        <v>2.117274231754724</v>
       </c>
       <c r="E13">
-        <v>21.40223123933002</v>
+        <v>41.79357784727009</v>
       </c>
       <c r="F13">
-        <v>24.41603192273011</v>
+        <v>38.99025019054461</v>
       </c>
       <c r="G13">
-        <v>33.17620698650827</v>
+        <v>59.43221996986491</v>
       </c>
       <c r="H13">
-        <v>12.40084491739543</v>
+        <v>14.74249599945229</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.78864458690801</v>
+        <v>31.67947945617571</v>
       </c>
       <c r="O13">
-        <v>20.19995739655366</v>
+        <v>30.61818959294385</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.734040688071927</v>
+        <v>9.751670943507989</v>
       </c>
       <c r="D14">
-        <v>2.87004543903785</v>
+        <v>2.106185259618309</v>
       </c>
       <c r="E14">
-        <v>21.21420978851934</v>
+        <v>41.34593199061158</v>
       </c>
       <c r="F14">
-        <v>24.28998584363616</v>
+        <v>38.60195282027586</v>
       </c>
       <c r="G14">
-        <v>32.93660461711558</v>
+        <v>58.83670937289417</v>
       </c>
       <c r="H14">
-        <v>12.3750879827921</v>
+        <v>14.59517128951269</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.67368539489659</v>
+        <v>31.43851144188478</v>
       </c>
       <c r="O14">
-        <v>20.11416586801264</v>
+        <v>30.31123597706268</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.712544578162985</v>
+        <v>9.693110427100368</v>
       </c>
       <c r="D15">
-        <v>2.869388947936345</v>
+        <v>2.09944862898219</v>
       </c>
       <c r="E15">
-        <v>21.09825076922159</v>
+        <v>41.07120945113685</v>
       </c>
       <c r="F15">
-        <v>24.21258366221619</v>
+        <v>38.36318625882195</v>
       </c>
       <c r="G15">
-        <v>32.78911880636149</v>
+        <v>58.47056061865734</v>
       </c>
       <c r="H15">
-        <v>12.35934762366352</v>
+        <v>14.50459716613974</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.60297336126124</v>
+        <v>31.28998244549474</v>
       </c>
       <c r="O15">
-        <v>20.06154445023211</v>
+        <v>30.12249279521057</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.58818396741828</v>
+        <v>9.353341315645912</v>
       </c>
       <c r="D16">
-        <v>2.865637373057486</v>
+        <v>2.061637019085208</v>
       </c>
       <c r="E16">
-        <v>20.42159408957463</v>
+        <v>39.48786249591</v>
       </c>
       <c r="F16">
-        <v>23.76616327202328</v>
+        <v>36.98036086641854</v>
       </c>
       <c r="G16">
-        <v>31.933021644086</v>
+        <v>56.35048574693847</v>
       </c>
       <c r="H16">
-        <v>12.26972793351934</v>
+        <v>13.98028514580318</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.19330956972086</v>
+        <v>30.424642833461</v>
       </c>
       <c r="O16">
-        <v>19.75898847577349</v>
+        <v>29.02942238394748</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.510881612523735</v>
+        <v>9.141086515999593</v>
       </c>
       <c r="D17">
-        <v>2.863344984699761</v>
+        <v>2.039087384577142</v>
       </c>
       <c r="E17">
-        <v>19.99562288820602</v>
+        <v>38.50750660247209</v>
       </c>
       <c r="F17">
-        <v>23.48989760279738</v>
+        <v>36.11864752750218</v>
       </c>
       <c r="G17">
-        <v>31.39827571243351</v>
+        <v>55.02974409371048</v>
       </c>
       <c r="H17">
-        <v>12.21529267921034</v>
+        <v>13.65377521001823</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.93814219015166</v>
+        <v>29.88120505119275</v>
       </c>
       <c r="O17">
-        <v>19.57258892858086</v>
+        <v>28.3482794112751</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.466063290532993</v>
+        <v>9.017567888300114</v>
       </c>
       <c r="D18">
-        <v>2.862029683714533</v>
+        <v>2.026332307265136</v>
       </c>
       <c r="E18">
-        <v>19.74661129124327</v>
+        <v>37.93995422835134</v>
       </c>
       <c r="F18">
-        <v>23.33017627434371</v>
+        <v>35.6179369050679</v>
       </c>
       <c r="G18">
-        <v>31.08726844452466</v>
+        <v>54.26243496322419</v>
       </c>
       <c r="H18">
-        <v>12.18419226319307</v>
+        <v>13.46412907494251</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.79000725568362</v>
+        <v>29.56404287680427</v>
       </c>
       <c r="O18">
-        <v>19.46512847085719</v>
+        <v>27.9524831287135</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.450828966686399</v>
+        <v>8.97549714818209</v>
       </c>
       <c r="D19">
-        <v>2.861584887426505</v>
+        <v>2.022048540970725</v>
       </c>
       <c r="E19">
-        <v>19.66161140627431</v>
+        <v>37.74712690110717</v>
       </c>
       <c r="F19">
-        <v>23.27596249551343</v>
+        <v>35.44751938674375</v>
       </c>
       <c r="G19">
-        <v>30.98138443994493</v>
+        <v>54.0013003563517</v>
       </c>
       <c r="H19">
-        <v>12.17369904556637</v>
+        <v>13.39959574262755</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.73962067985785</v>
+        <v>29.45587200880245</v>
       </c>
       <c r="O19">
-        <v>19.42870566065305</v>
+        <v>27.81777077363338</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.519147792434978</v>
+        <v>9.163829240327138</v>
       </c>
       <c r="D20">
-        <v>2.863588677445738</v>
+        <v>2.041465104257403</v>
       </c>
       <c r="E20">
-        <v>20.04138240899327</v>
+        <v>38.61223999729845</v>
       </c>
       <c r="F20">
-        <v>23.51939291460245</v>
+        <v>36.2109004092872</v>
       </c>
       <c r="G20">
-        <v>31.45555771327277</v>
+        <v>55.17112598948754</v>
       </c>
       <c r="H20">
-        <v>12.22106595754394</v>
+        <v>13.68872254637991</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.96544799483449</v>
+        <v>29.93953086719064</v>
       </c>
       <c r="O20">
-        <v>19.59245815574117</v>
+        <v>28.42120150757957</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.744327365249977</v>
+        <v>9.77967956702137</v>
       </c>
       <c r="D21">
-        <v>2.870360434484887</v>
+        <v>2.109430604826877</v>
       </c>
       <c r="E21">
-        <v>21.26960091134836</v>
+        <v>41.47752378546124</v>
       </c>
       <c r="F21">
-        <v>24.32704965068447</v>
+        <v>38.7161965735442</v>
       </c>
       <c r="G21">
-        <v>33.00713256012475</v>
+        <v>59.0119115187637</v>
       </c>
       <c r="H21">
-        <v>12.3826458645136</v>
+        <v>14.63851323605657</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.70751365554064</v>
+        <v>31.50948335633596</v>
       </c>
       <c r="O21">
-        <v>20.13938006887667</v>
+        <v>30.401545981213</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.888008340429265</v>
+        <v>10.17011057177827</v>
       </c>
       <c r="D22">
-        <v>2.87481734652353</v>
+        <v>2.15627923163958</v>
       </c>
       <c r="E22">
-        <v>22.03690264483966</v>
+        <v>43.32558505546464</v>
       </c>
       <c r="F22">
-        <v>24.84632078162225</v>
+        <v>40.31180658207117</v>
       </c>
       <c r="G22">
-        <v>33.98904006068562</v>
+        <v>61.45956872844399</v>
       </c>
       <c r="H22">
-        <v>12.48990748496821</v>
+        <v>15.24416459728645</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.17935961385674</v>
+        <v>32.49403281050592</v>
       </c>
       <c r="O22">
-        <v>20.49373176747093</v>
+        <v>31.6629889730362</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.811656343170425</v>
+        <v>9.962796534361864</v>
       </c>
       <c r="D23">
-        <v>2.872435633780768</v>
+        <v>2.131025116618664</v>
       </c>
       <c r="E23">
-        <v>21.63060736680948</v>
+        <v>42.34104756785149</v>
       </c>
       <c r="F23">
-        <v>24.57001917168679</v>
+        <v>39.46383507044844</v>
       </c>
       <c r="G23">
-        <v>33.46798535939462</v>
+        <v>60.15862844420953</v>
       </c>
       <c r="H23">
-        <v>12.43251800643284</v>
+        <v>14.92222565769247</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.92877110911181</v>
+        <v>31.97238356075506</v>
       </c>
       <c r="O23">
-        <v>20.30493171273619</v>
+        <v>30.99257898276373</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.515411820516509</v>
+        <v>9.153551904885449</v>
       </c>
       <c r="D24">
-        <v>2.863478495811163</v>
+        <v>2.040389491482709</v>
       </c>
       <c r="E24">
-        <v>20.02070734994363</v>
+        <v>38.564902363374</v>
       </c>
       <c r="F24">
-        <v>23.50606084954937</v>
+        <v>36.16920942622114</v>
       </c>
       <c r="G24">
-        <v>31.42967163699083</v>
+        <v>55.10723220258424</v>
       </c>
       <c r="H24">
-        <v>12.21845524834599</v>
+        <v>13.67292888495721</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.95310750188673</v>
+        <v>29.91317649911919</v>
       </c>
       <c r="O24">
-        <v>19.58347619283895</v>
+        <v>28.38824653522132</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.182497424840949</v>
+        <v>8.225454170969716</v>
       </c>
       <c r="D25">
-        <v>2.853938411188361</v>
+        <v>1.950645201183802</v>
       </c>
       <c r="E25">
-        <v>18.13092776440016</v>
+        <v>34.34796435631867</v>
       </c>
       <c r="F25">
-        <v>22.32795688141718</v>
+        <v>32.42000061192362</v>
       </c>
       <c r="G25">
-        <v>29.10099330607924</v>
+        <v>49.36362981220816</v>
       </c>
       <c r="H25">
-        <v>11.9956708575648</v>
+        <v>12.2542612518708</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.84905939529497</v>
+        <v>27.51708508088413</v>
       </c>
       <c r="O25">
-        <v>18.79637008422408</v>
+        <v>25.42409825363394</v>
       </c>
     </row>
   </sheetData>
